--- a/SCH & STH/sch_sth_2_child.xlsx
+++ b/SCH & STH/sch_sth_2_child.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\SCH &amp; STH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\SCH &amp; STH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B90446-2813-40A6-A766-D8508F0509C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="177">
   <si>
     <t>form_title</t>
   </si>
@@ -217,18 +218,12 @@
     <t>You just entered a value that will end the survey</t>
   </si>
   <si>
-    <t>p_subdistrict</t>
-  </si>
-  <si>
     <t>p_school_id</t>
   </si>
   <si>
     <t>p_consent</t>
   </si>
   <si>
-    <t>p_idmethod</t>
-  </si>
-  <si>
     <t>p_barcodeid</t>
   </si>
   <si>
@@ -322,9 +317,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 99 et 901</t>
   </si>
   <si>
-    <t>p_IDMethod</t>
-  </si>
-  <si>
     <t>Scanner</t>
   </si>
   <si>
@@ -337,9 +329,6 @@
     <t>Génération Automatique</t>
   </si>
   <si>
-    <t>select_one p_IDMethod</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -535,12 +524,6 @@
     <t>${p_consent} = 'Yes'</t>
   </si>
   <si>
-    <t>${p_idmethod} != 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${p_idmethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>${p_urinate_place} = 'Other' and ${p_consent} = 'Yes'</t>
   </si>
   <si>
@@ -563,13 +546,28 @@
   </si>
   <si>
     <t>. &gt;= 5 and . &lt;= 15</t>
+  </si>
+  <si>
+    <t>p_district</t>
+  </si>
+  <si>
+    <t>select_one p_id_method</t>
+  </si>
+  <si>
+    <t>p_id_method</t>
+  </si>
+  <si>
+    <t>${p_id_method} = 'Scanner' and ${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>${p_id_method} != 'Scanner' and ${p_consent} = 'Yes'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,6 +617,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +678,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -758,6 +763,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1046,14 +1052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1133,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>18</v>
@@ -1163,15 +1169,15 @@
       <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>62</v>
+      <c r="B3" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="16"/>
@@ -1191,14 +1197,14 @@
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="16"/>
@@ -1206,10 +1212,10 @@
         <v>42</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="14"/>
@@ -1224,7 +1230,7 @@
         <v>38</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>48</v>
@@ -1234,7 +1240,7 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
@@ -1250,17 +1256,17 @@
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
@@ -1268,7 +1274,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="20"/>
       <c r="K6" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="9" t="s">
@@ -1279,17 +1285,17 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
@@ -1297,7 +1303,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
       <c r="K7" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="9" t="s">
@@ -1311,14 +1317,14 @@
         <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="9"/>
@@ -1326,7 +1332,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -1340,28 +1346,28 @@
         <v>22</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="16"/>
       <c r="H9" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="9" t="s">
@@ -1372,17 +1378,17 @@
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="11"/>
@@ -1390,7 +1396,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="K10" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="9" t="s">
@@ -1401,17 +1407,17 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="11"/>
@@ -1419,7 +1425,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="9" t="s">
@@ -1433,14 +1439,14 @@
         <v>29</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="11"/>
@@ -1448,7 +1454,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="9" t="s">
@@ -1459,17 +1465,17 @@
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="11"/>
@@ -1477,7 +1483,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="9" t="s">
@@ -1488,17 +1494,17 @@
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="11"/>
@@ -1506,7 +1512,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
       <c r="K14" s="24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="9" t="s">
@@ -1517,17 +1523,17 @@
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="11"/>
@@ -1535,7 +1541,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="K15" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="9" t="s">
@@ -1549,14 +1555,14 @@
         <v>29</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="11"/>
@@ -1564,7 +1570,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
       <c r="K16" s="24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="9" t="s">
@@ -1575,17 +1581,17 @@
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="11"/>
@@ -1593,7 +1599,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="9" t="s">
@@ -1604,17 +1610,17 @@
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="11"/>
@@ -1622,7 +1628,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
       <c r="K18" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="9" t="s">
@@ -1633,10 +1639,10 @@
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="28" t="s">
         <v>58</v>
@@ -1645,17 +1651,17 @@
         <v>59</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
       <c r="K19" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="9" t="s">
@@ -1666,17 +1672,17 @@
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
@@ -1684,7 +1690,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="8"/>
       <c r="K20" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -1696,14 +1702,14 @@
         <v>29</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
@@ -1721,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>39</v>
@@ -1744,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>39</v>
@@ -1769,12 +1775,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D6:D26"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1829,119 +1835,119 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>40</v>
@@ -1950,54 +1956,54 @@
         <v>40</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>26</v>
@@ -2011,146 +2017,146 @@
     </row>
     <row r="17" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2159,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SCH & STH/sch_sth_2_child.xlsx
+++ b/SCH & STH/sch_sth_2_child.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="179">
   <si>
     <t>form_title</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>. &gt;= 5 and . &lt;= 15</t>
+  </si>
+  <si>
+    <t>L'enfant a-t-il donné son consentement et le consentement de ses parents ou tuteurs?</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1053,10 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1235,9 @@
       <c r="D5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F5" s="18" t="s">
         <v>79</v>
       </c>
